--- a/biology/Zoologie/Cou_nu_du_Forez/Cou_nu_du_Forez.xlsx
+++ b/biology/Zoologie/Cou_nu_du_Forez/Cou_nu_du_Forez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Cou nu du Forez est une race de poule française.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poules Cou nu ont une bonne réputation de rusticité. Elles ont un cou complètement dénudé, qui dévoile une peau de couleur rouge vif, à l’exception d’une touffe de plumes dans le milieu, nettement dégagée et isolée.
 Le standard est assez récent.
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée dans la région du Forez (Loire) par Henri Calemard, après la seconde guerre mondiale à partir de gâtinaise.
 </t>
@@ -575,7 +591,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Masse idéale : Coq : 3 à 3,5 kg ; poule : 2,3 à 2,8 kg.
 Crête : simple
@@ -613,7 +631,9 @@
           <t>Club officiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Club du Cou-nu du Forez</t>
         </is>
